--- a/pred_ohlcv/54_21/2020-01-20 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BTT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-7162705.759099999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-7155732.10556771</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-7772275.91676771</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-6956016.80856771</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8975627.346667711</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8976817.723367712</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8974570.796067711</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2807088.911045091</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>191858.9894792391</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>191858.9894792391</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>6191858.989479239</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1553559.286620761</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-9246010.131302582</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-10216446.30980258</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-11091103.86500258</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-11853288.86490258</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-16454005.23260258</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-30923961.80660258</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-31108307.34840258</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-31049892.83190258</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-31013830.87588948</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-33386527.44155452</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-33386527.44155452</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-33386527.44155452</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-33386527.44155452</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-33368841.00695452</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-32852015.54911955</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-33976429.18071955</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-34300795.29461955</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-34457770.02191955</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-43348863.02871955</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-43348863.02871955</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-41967692.08231955</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-41967692.08231955</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-28258766.54541954</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-28276101.28211954</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-25233881.64211954</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-25227921.56541954</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-25329060.97641954</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-25329060.97641954</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-25329060.97641954</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-25090315.14041954</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-25089143.76591954</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-25089143.76591954</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-25089143.76591954</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-25089143.76591954</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-25089143.76591954</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-25038900.94951954</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-25088823.52401954</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-22887497.02561954</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-22862390.64561955</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-22919023.64561955</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-21810126.30231955</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-19172742.74491955</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-19157845.65771955</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-19265804.63421955</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-16834610.08591954</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-17021099.33731955</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-17019934.48371955</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-17018686.35121955</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-17024686.35121955</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-13915552.28521955</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-13675578.75121955</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-13674409.82741955</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-15475750.96931954</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-15475750.96931954</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-16085841.27921955</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-18863927.68761954</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-18863927.68761954</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-20189161.84961955</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-19217243.61641955</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-19364843.61641955</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-19364843.61641955</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-19364843.61641955</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-19030588.19917659</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-19530588.19917659</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-19644595.76467659</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-19964843.61647658</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-19963643.61647658</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-20013643.61647658</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-20022109.48257658</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-20022109.48257658</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-19972109.48257658</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-20831640.48247658</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-20831640.48247658</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-20831640.48247658</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-22353191.49117658</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-22353191.49117658</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-22221613.62337658</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-22204872.12227658</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-22308502.12327658</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-22308502.12327658</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-21707818.75247658</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-20795825.66557658</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-20885626.66547658</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-20885626.66547658</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-20885626.66547658</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-20966674.05437658</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-20966674.05437658</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-21285721.98017658</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-21285721.98017658</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-21285721.98017658</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-22255005.46227658</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-18163350.60617658</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-18163350.60617658</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-18163350.60617658</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-18163350.60617658</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-18163350.60617658</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-18165692.43487658</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-18164523.30857658</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-18851932.29387658</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-18956690.18227658</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-18956690.18227658</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-18915689.25976736</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-18915689.25976736</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-19080423.86536736</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-19079245.68396736</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-19079245.68396736</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-19079245.68396736</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-19079245.68396736</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-19094262.86406736</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-19093090.86406736</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-19093090.86406736</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-19093090.86406736</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-19093090.86406736</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-19830854.98626736</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-19830854.98626736</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-19579485.62426736</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-19579485.62426736</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-19297368.35876736</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-19256693.31146736</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-19256693.31146736</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-18919901.31736736</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-18884028.68806736</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-18703330.65856736</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-19201275.56156736</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-19201275.56156736</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-19194743.38016736</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-21560872.53486736</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-31439034.87376736</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-35706970.18136736</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-26756456.09116736</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-26302439.79846736</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-26303977.75356736</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-26353977.75356736</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-29023977.75356736</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-29023977.75356736</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-29022766.75356736</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-29025434.85456736</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-29025434.85456736</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-28914972.56366736</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-37914972.56366736</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-34171868.27386735</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-34171868.27386735</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-34178697.55926736</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-50493706.3471556</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-45329214.2268556</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-45698637.4333556</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-70237418.5378556</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-68345747.20675559</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-72692658.2881556</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-73029115.08005559</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-73725343.6550556</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-74025947.55805559</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-72025947.55805559</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-72022642.2950556</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-72119408.83075559</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-72129813.56935559</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-93237949.10625559</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-85486375.98585559</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-86969438.96815559</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-86969438.96815559</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-90013614.58605559</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-91624643.96995559</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-86188784.7563556</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-86692184.18635561</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-84066732.01555561</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-84066732.01555561</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-118387560.5680556</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-113527089.8128556</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-113672168.1669556</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-111476978.0669556</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-107701978.0669556</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-107482214.9839556</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-107484485.1591556</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-95234721.30545561</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-95233511.30545561</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-95789655.41005561</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-95789655.41005561</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-97159039.1385556</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-96673763.9683556</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-96759485.6200556</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-95582895.0959556</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 BTT ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>-2260088.911045091</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2807088.911045091</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>6191858.989479239</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1536741.104802581</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1536741.104802581</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1462875.655702581</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-6975529.655602582</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6975529.655602582</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6975529.655602582</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-8169305.444602582</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-11853288.86490258</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-13203831.09370258</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-15426922.68730258</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-31108307.34840258</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-31049892.83190258</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-31013830.87588948</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-31048795.91085451</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-33386527.44155452</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-33386527.44155452</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-33386527.44155452</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-33368841.00695452</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-32852015.54911955</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-33500501.94401955</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-33976429.18071955</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-33976429.18071955</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-34300795.29461955</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-34457770.02191955</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-43348863.02871955</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-43348863.02871955</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-41967692.08231955</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-41967692.08231955</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-28258766.54541954</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-28276101.28211954</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-25233881.64211954</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-25227921.56541954</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-25329060.97641954</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-25329060.97641954</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-25329060.97641954</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-25090315.14041954</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-25089143.76591954</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-25089143.76591954</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-25089143.76591954</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-25089143.76591954</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-25089143.76591954</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-25038900.94951954</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-25088823.52401954</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-22887497.02561954</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-22862390.64561955</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-22919023.64561955</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-21810126.30231955</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-19172742.74491955</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-19157845.65771955</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-19265804.63421955</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-16834610.08591954</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-17021099.33731955</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-17019934.48371955</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-17018686.35121955</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-17024686.35121955</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-13915552.28521955</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-13675578.75121955</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-13674409.82741955</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-15475750.96931954</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-15475750.96931954</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-16085841.27921955</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-18863927.68761954</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-18863927.68761954</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-20189161.84961955</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-19217243.61641955</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-19364843.61641955</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-19364843.61641955</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-19364843.61641955</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-19030588.19917659</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-19530588.19917659</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-19644595.76467659</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-19964843.61647658</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-19963643.61647658</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-20013643.61647658</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-20022109.48257658</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-20022109.48257658</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-19972109.48257658</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-20831640.48247658</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-20831640.48247658</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-22308502.12327658</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-21710458.03827658</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-21707818.75247658</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-20795825.66557658</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-20885626.66547658</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-20885626.66547658</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-18851932.29387658</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-18956690.18227658</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-18956690.18227658</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-18915689.25976736</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-19080423.86536736</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-19079245.68396736</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-19079245.68396736</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-19079245.68396736</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-19079245.68396736</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-19094262.86406736</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-19093090.86406736</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-19093090.86406736</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-19093090.86406736</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-19093090.86406736</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-19830854.98626736</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-19830854.98626736</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-19579485.62426736</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-19579485.62426736</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-19297368.35876736</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-19256693.31146736</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-19256693.31146736</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-18919901.31736736</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-18884028.68806736</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-18703330.65856736</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-19201275.56156736</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-19201275.56156736</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-19194743.38016736</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-21560872.53486736</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-31439034.87376736</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-26303977.75356736</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-26353977.75356736</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-29023977.75356736</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-29022766.75356736</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-29025434.85456736</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-50493706.3471556</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-45329214.2268556</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-45698637.4333556</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-70237418.5378556</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-68345747.20675559</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-72692658.2881556</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-73029115.08005559</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-73725343.6550556</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-74025947.55805559</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-72025947.55805559</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-72022642.2950556</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-72119408.83075559</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-72129813.56935559</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-93237949.10625559</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-85486375.98585559</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-86969438.96815559</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-86969438.96815559</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-90013614.58605559</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-91624643.96995559</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-86188784.7563556</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-86692184.18635561</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-84066732.01555561</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-84066732.01555561</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-118387560.5680556</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-113527089.8128556</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-113537089.8128556</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-115577381.6938556</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-113672168.1669556</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-111476978.0669556</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-107701978.0669556</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-107482214.9839556</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-107484485.1591556</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-95234721.30545561</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-95234721.30545561</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-95233511.30545561</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-95789655.41005561</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-95789655.41005561</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-97159039.1385556</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-96673763.9683556</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-96759485.6200556</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-95225067.5751556</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-95582895.0959556</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
